--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hp-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hp-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgam</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -546,10 +546,10 @@
         <v>11.673104</v>
       </c>
       <c r="I2">
-        <v>0.1847044466412153</v>
+        <v>0.03097176293340264</v>
       </c>
       <c r="J2">
-        <v>0.1847044466412152</v>
+        <v>0.03099614597041398</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N2">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O2">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P2">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q2">
-        <v>489.0995426986845</v>
+        <v>706.441639353792</v>
       </c>
       <c r="R2">
-        <v>4401.89588428816</v>
+        <v>6357.974754184128</v>
       </c>
       <c r="S2">
-        <v>0.1084065061331995</v>
+        <v>0.01218594209773153</v>
       </c>
       <c r="T2">
-        <v>0.1084134040579677</v>
+        <v>0.01219839388002455</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -608,10 +608,10 @@
         <v>11.673104</v>
       </c>
       <c r="I3">
-        <v>0.1847044466412153</v>
+        <v>0.03097176293340264</v>
       </c>
       <c r="J3">
-        <v>0.1847044466412152</v>
+        <v>0.03099614597041398</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,28 +620,28 @@
         <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N3">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O3">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P3">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q3">
-        <v>0.1590654971733333</v>
+        <v>1.262099895514667</v>
       </c>
       <c r="R3">
-        <v>0.95439298304</v>
+        <v>7.572599373088001</v>
       </c>
       <c r="S3">
-        <v>3.52560844767025E-05</v>
+        <v>2.177090843960342E-05</v>
       </c>
       <c r="T3">
-        <v>2.350555188497759E-05</v>
+        <v>1.45287695248812E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -670,40 +670,40 @@
         <v>11.673104</v>
       </c>
       <c r="I4">
-        <v>0.1847044466412153</v>
+        <v>0.03097176293340264</v>
       </c>
       <c r="J4">
-        <v>0.1847044466412152</v>
+        <v>0.03099614597041398</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N4">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O4">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P4">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q4">
-        <v>0.5008410121777778</v>
+        <v>606.7280978339787</v>
       </c>
       <c r="R4">
-        <v>4.5075691096</v>
+        <v>5460.552880505808</v>
       </c>
       <c r="S4">
-        <v>0.0001110089450479344</v>
+        <v>0.01046590837430649</v>
       </c>
       <c r="T4">
-        <v>0.0001110160085663417</v>
+        <v>0.01047660259979438</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,10 +732,10 @@
         <v>11.673104</v>
       </c>
       <c r="I5">
-        <v>0.1847044466412153</v>
+        <v>0.03097176293340264</v>
       </c>
       <c r="J5">
-        <v>0.1847044466412152</v>
+        <v>0.03099614597041398</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N5">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O5">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P5">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q5">
-        <v>343.574855244432</v>
+        <v>481.0586391453014</v>
       </c>
       <c r="R5">
-        <v>3092.173697199888</v>
+        <v>4329.527752307712</v>
       </c>
       <c r="S5">
-        <v>0.07615167547849115</v>
+        <v>0.008298141552925013</v>
       </c>
       <c r="T5">
-        <v>0.07615652102279621</v>
+        <v>0.008306620721070163</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>9.975766999999999</v>
+        <v>46.51592366666667</v>
       </c>
       <c r="H6">
-        <v>29.927301</v>
+        <v>139.547771</v>
       </c>
       <c r="I6">
-        <v>0.4735420476567405</v>
+        <v>0.3702563158262584</v>
       </c>
       <c r="J6">
-        <v>0.4735420476567405</v>
+        <v>0.3705478062871626</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N6">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O6">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P6">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q6">
-        <v>1253.944900457143</v>
+        <v>8445.256387110709</v>
       </c>
       <c r="R6">
-        <v>11285.50410411429</v>
+        <v>76007.30748399638</v>
       </c>
       <c r="S6">
-        <v>0.2779307148644102</v>
+        <v>0.1456785664955524</v>
       </c>
       <c r="T6">
-        <v>0.2779483996439526</v>
+        <v>0.1458274230862217</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>9.975766999999999</v>
+        <v>46.51592366666667</v>
       </c>
       <c r="H7">
-        <v>29.927301</v>
+        <v>139.547771</v>
       </c>
       <c r="I7">
-        <v>0.4735420476567405</v>
+        <v>0.3702563158262584</v>
       </c>
       <c r="J7">
-        <v>0.4735420476567405</v>
+        <v>0.3705478062871626</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,28 +868,28 @@
         <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N7">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O7">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P7">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q7">
-        <v>0.40780935496</v>
+        <v>15.08795151644367</v>
       </c>
       <c r="R7">
-        <v>2.44685612976</v>
+        <v>90.52770909866202</v>
       </c>
       <c r="S7">
-        <v>9.038893615748675E-05</v>
+        <v>0.0002602634008393779</v>
       </c>
       <c r="T7">
-        <v>6.026312508077044E-05</v>
+        <v>0.0001736862279792848</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>9.975766999999999</v>
+        <v>46.51592366666667</v>
       </c>
       <c r="H8">
-        <v>29.927301</v>
+        <v>139.547771</v>
       </c>
       <c r="I8">
-        <v>0.4735420476567405</v>
+        <v>0.3702563158262584</v>
       </c>
       <c r="J8">
-        <v>0.4735420476567405</v>
+        <v>0.3705478062871626</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N8">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O8">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P8">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q8">
-        <v>1.284047475683333</v>
+        <v>7253.216767005732</v>
       </c>
       <c r="R8">
-        <v>11.55642728115</v>
+        <v>65278.95090305158</v>
       </c>
       <c r="S8">
-        <v>0.0002846028024886946</v>
+        <v>0.1251161803342714</v>
       </c>
       <c r="T8">
-        <v>0.0002846209118143285</v>
+        <v>0.1252440259637977</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>9.975766999999999</v>
+        <v>46.51592366666667</v>
       </c>
       <c r="H9">
-        <v>29.927301</v>
+        <v>139.547771</v>
       </c>
       <c r="I9">
-        <v>0.4735420476567405</v>
+        <v>0.3702563158262584</v>
       </c>
       <c r="J9">
-        <v>0.4735420476567405</v>
+        <v>0.3705478062871626</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N9">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O9">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P9">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q9">
-        <v>880.8512379339329</v>
+        <v>5750.883467929367</v>
       </c>
       <c r="R9">
-        <v>7927.661141405397</v>
+        <v>51757.9512113643</v>
       </c>
       <c r="S9">
-        <v>0.195236341053684</v>
+        <v>0.09920130559559517</v>
       </c>
       <c r="T9">
-        <v>0.1952487639758928</v>
+        <v>0.09930267100916379</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -1033,19 +1033,19 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.01522366666666666</v>
+        <v>0.2964835</v>
       </c>
       <c r="H10">
-        <v>0.045671</v>
+        <v>0.592967</v>
       </c>
       <c r="I10">
-        <v>0.0007226558405160222</v>
+        <v>0.002359942139382673</v>
       </c>
       <c r="J10">
-        <v>0.0007226558405160222</v>
+        <v>0.001574533362132169</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N10">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O10">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P10">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q10">
-        <v>1.913601147954444</v>
+        <v>53.828430667974</v>
       </c>
       <c r="R10">
-        <v>17.22241033159</v>
+        <v>322.970584007844</v>
       </c>
       <c r="S10">
-        <v>0.0004241402750810198</v>
+        <v>0.0009285270046251928</v>
       </c>
       <c r="T10">
-        <v>0.0004241672632002117</v>
+        <v>0.00061965052516079</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.01522366666666666</v>
+        <v>0.2964835</v>
       </c>
       <c r="H11">
-        <v>0.045671</v>
+        <v>0.592967</v>
       </c>
       <c r="I11">
-        <v>0.0007226558405160222</v>
+        <v>0.002359942139382673</v>
       </c>
       <c r="J11">
-        <v>0.0007226558405160222</v>
+        <v>0.001574533362132169</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N11">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O11">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P11">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q11">
-        <v>0.0006223434933333333</v>
+        <v>0.09616768454350001</v>
       </c>
       <c r="R11">
-        <v>0.00373406096</v>
+        <v>0.384670738174</v>
       </c>
       <c r="S11">
-        <v>1.379393719215969E-07</v>
+        <v>1.658868574893145E-06</v>
       </c>
       <c r="T11">
-        <v>9.196543268515482E-08</v>
+        <v>7.380282809833814E-07</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.01522366666666666</v>
+        <v>0.2964835</v>
       </c>
       <c r="H12">
-        <v>0.045671</v>
+        <v>0.592967</v>
       </c>
       <c r="I12">
-        <v>0.0007226558405160222</v>
+        <v>0.002359942139382673</v>
       </c>
       <c r="J12">
-        <v>0.0007226558405160222</v>
+        <v>0.001574533362132169</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N12">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O12">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P12">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q12">
-        <v>0.001959539627777778</v>
+        <v>46.23060070247651</v>
       </c>
       <c r="R12">
-        <v>0.01763585665</v>
+        <v>277.383604214859</v>
       </c>
       <c r="S12">
-        <v>4.343223130098225E-07</v>
+        <v>0.0007974663325608246</v>
       </c>
       <c r="T12">
-        <v>4.343499490138519E-07</v>
+        <v>0.0005321874639163907</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.01522366666666666</v>
+        <v>0.2964835</v>
       </c>
       <c r="H13">
-        <v>0.045671</v>
+        <v>0.592967</v>
       </c>
       <c r="I13">
-        <v>0.0007226558405160222</v>
+        <v>0.002359942139382673</v>
       </c>
       <c r="J13">
-        <v>0.0007226558405160222</v>
+        <v>0.001574533362132169</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N13">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O13">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P13">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q13">
-        <v>1.344236050143</v>
+        <v>36.65501884649601</v>
       </c>
       <c r="R13">
-        <v>12.098124451287</v>
+        <v>219.930113078976</v>
       </c>
       <c r="S13">
-        <v>0.000297943303750071</v>
+        <v>0.0006322899336217624</v>
       </c>
       <c r="T13">
-        <v>0.0002979622619341116</v>
+        <v>0.0004219573447740045</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.184249666666666</v>
+        <v>71.35859699999999</v>
       </c>
       <c r="H14">
-        <v>21.552749</v>
+        <v>214.075791</v>
       </c>
       <c r="I14">
-        <v>0.3410308498615283</v>
+        <v>0.5679984217250741</v>
       </c>
       <c r="J14">
-        <v>0.3410308498615283</v>
+        <v>0.5684455879573963</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N14">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O14">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P14">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q14">
-        <v>903.0536933278012</v>
+        <v>12955.59884842966</v>
       </c>
       <c r="R14">
-        <v>8127.48323995021</v>
+        <v>116600.389635867</v>
       </c>
       <c r="S14">
-        <v>0.2001574060040765</v>
+        <v>0.2234808491085213</v>
       </c>
       <c r="T14">
-        <v>0.2001701420545007</v>
+        <v>0.2237092052632971</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.184249666666666</v>
+        <v>71.35859699999999</v>
       </c>
       <c r="H15">
-        <v>21.552749</v>
+        <v>214.075791</v>
       </c>
       <c r="I15">
-        <v>0.3410308498615283</v>
+        <v>0.5679984217250741</v>
       </c>
       <c r="J15">
-        <v>0.3410308498615283</v>
+        <v>0.5684455879573963</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1364,28 +1364,28 @@
         <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N15">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O15">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P15">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q15">
-        <v>0.2936921263733333</v>
+        <v>23.145945881517</v>
       </c>
       <c r="R15">
-        <v>1.76215275824</v>
+        <v>138.875675289102</v>
       </c>
       <c r="S15">
-        <v>6.509541416311938E-05</v>
+        <v>0.0003992617940349607</v>
       </c>
       <c r="T15">
-        <v>4.339970413040087E-05</v>
+        <v>0.0002664465105678521</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.184249666666666</v>
+        <v>71.35859699999999</v>
       </c>
       <c r="H16">
-        <v>21.552749</v>
+        <v>214.075791</v>
       </c>
       <c r="I16">
-        <v>0.3410308498615283</v>
+        <v>0.5679984217250741</v>
       </c>
       <c r="J16">
-        <v>0.3410308498615283</v>
+        <v>0.5684455879573963</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N16">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O16">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P16">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q16">
-        <v>0.9247326695944444</v>
+        <v>11126.92883278812</v>
       </c>
       <c r="R16">
-        <v>8.32259402635</v>
+        <v>100142.3594950931</v>
       </c>
       <c r="S16">
-        <v>0.0002049624443826529</v>
+        <v>0.1919367473949675</v>
       </c>
       <c r="T16">
-        <v>0.0002049754861785016</v>
+        <v>0.1921328713034373</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,309 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>71.35859699999999</v>
+      </c>
+      <c r="H17">
+        <v>214.075791</v>
+      </c>
+      <c r="I17">
+        <v>0.5679984217250741</v>
+      </c>
+      <c r="J17">
+        <v>0.5684455879573963</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>123.632576</v>
+      </c>
+      <c r="N17">
+        <v>370.897728</v>
+      </c>
+      <c r="O17">
+        <v>0.2679260321980438</v>
+      </c>
+      <c r="P17">
+        <v>0.2679888244493004</v>
+      </c>
+      <c r="Q17">
+        <v>8822.247166855872</v>
+      </c>
+      <c r="R17">
+        <v>79400.22450170285</v>
+      </c>
+      <c r="S17">
+        <v>0.1521815634275503</v>
+      </c>
+      <c r="T17">
+        <v>0.152337064880094</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3.569643</v>
+      </c>
+      <c r="H18">
+        <v>10.708929</v>
+      </c>
+      <c r="I18">
+        <v>0.02841355737588224</v>
+      </c>
+      <c r="J18">
+        <v>0.02843592642289484</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>181.556244</v>
+      </c>
+      <c r="N18">
+        <v>544.668732</v>
+      </c>
+      <c r="O18">
+        <v>0.393453292404907</v>
+      </c>
+      <c r="P18">
+        <v>0.3935455037432071</v>
+      </c>
+      <c r="Q18">
+        <v>648.0909755008919</v>
+      </c>
+      <c r="R18">
+        <v>5832.818779508028</v>
+      </c>
+      <c r="S18">
+        <v>0.0111794076984766</v>
+      </c>
+      <c r="T18">
+        <v>0.01119083098850292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3.569643</v>
+      </c>
+      <c r="H19">
+        <v>10.708929</v>
+      </c>
+      <c r="I19">
+        <v>0.02841355737588224</v>
+      </c>
+      <c r="J19">
+        <v>0.02843592642289484</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.5</v>
+      </c>
+      <c r="M19">
+        <v>0.324361</v>
+      </c>
+      <c r="N19">
+        <v>0.648722</v>
+      </c>
+      <c r="O19">
+        <v>0.0007029276469155644</v>
+      </c>
+      <c r="P19">
+        <v>0.0004687282586276696</v>
+      </c>
+      <c r="Q19">
+        <v>1.157852973123</v>
+      </c>
+      <c r="R19">
+        <v>6.947117838737999</v>
+      </c>
+      <c r="S19">
+        <v>1.997267502672928E-05</v>
+      </c>
+      <c r="T19">
+        <v>1.332872227466803E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>7.184249666666666</v>
-      </c>
-      <c r="H17">
-        <v>21.552749</v>
-      </c>
-      <c r="I17">
-        <v>0.3410308498615283</v>
-      </c>
-      <c r="J17">
-        <v>0.3410308498615283</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>88.299099</v>
-      </c>
-      <c r="N17">
-        <v>264.897297</v>
-      </c>
-      <c r="O17">
-        <v>0.4122893458348313</v>
-      </c>
-      <c r="P17">
-        <v>0.4123155798773419</v>
-      </c>
-      <c r="Q17">
-        <v>634.362772557717</v>
-      </c>
-      <c r="R17">
-        <v>5709.264953019452</v>
-      </c>
-      <c r="S17">
-        <v>0.1406033859989061</v>
-      </c>
-      <c r="T17">
-        <v>0.1406123326167187</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3.569643</v>
+      </c>
+      <c r="H20">
+        <v>10.708929</v>
+      </c>
+      <c r="I20">
+        <v>0.02841355737588224</v>
+      </c>
+      <c r="J20">
+        <v>0.02843592642289484</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>155.929759</v>
+      </c>
+      <c r="N20">
+        <v>467.789277</v>
+      </c>
+      <c r="O20">
+        <v>0.3379177477501335</v>
+      </c>
+      <c r="P20">
+        <v>0.3379969435488647</v>
+      </c>
+      <c r="Q20">
+        <v>556.613572706037</v>
+      </c>
+      <c r="R20">
+        <v>5009.522154354333</v>
+      </c>
+      <c r="S20">
+        <v>0.009601445314027322</v>
+      </c>
+      <c r="T20">
+        <v>0.009611256217918855</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.569643</v>
+      </c>
+      <c r="H21">
+        <v>10.708929</v>
+      </c>
+      <c r="I21">
+        <v>0.02841355737588224</v>
+      </c>
+      <c r="J21">
+        <v>0.02843592642289484</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>123.632576</v>
+      </c>
+      <c r="N21">
+        <v>370.897728</v>
+      </c>
+      <c r="O21">
+        <v>0.2679260321980438</v>
+      </c>
+      <c r="P21">
+        <v>0.2679888244493004</v>
+      </c>
+      <c r="Q21">
+        <v>441.324159490368</v>
+      </c>
+      <c r="R21">
+        <v>3971.917435413312</v>
+      </c>
+      <c r="S21">
+        <v>0.00761273168835159</v>
+      </c>
+      <c r="T21">
+        <v>0.007620510494198387</v>
       </c>
     </row>
   </sheetData>
